--- a/数据整理/stocks/A股/科创板/688186-广大特材.xlsx
+++ b/数据整理/stocks/A股/科创板/688186-广大特材.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>000270</t>
-  </si>
-  <si>
-    <t>建信灵活配置混合</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>46.21</t>
-  </si>
-  <si>
-    <t>2.30</t>
-  </si>
-  <si>
-    <t>0.0113</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,1101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>46.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1477</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010695</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏磐益一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9360</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6798</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2971</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2731</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2288</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信新得益混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006277</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011703</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中金鑫瑞优选一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000195</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000667</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>50.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009031</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001720</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信新增利混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010951</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中金成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000196</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信成长收益混合B</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000672</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>50.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006278</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009032</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010952</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中金成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688186-广大特材.xlsx
+++ b/数据整理/stocks/A股/科创板/688186-广大特材.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1543,4 +1544,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688186-广大特材.xlsx
+++ b/数据整理/stocks/A股/科创板/688186-广大特材.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1552,7 +1553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1563,17 +1564,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1583,14 +1604,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.58</v>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7048</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1599,13 +1642,613 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4301</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4100</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012027</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信安阳一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信新得益混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012028</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信安阳一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000195</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000196</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信成长收益混合B</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688186-广大特材.xlsx
+++ b/数据整理/stocks/A股/科创板/688186-广大特材.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2179,7 +2180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2190,17 +2191,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2210,14 +2231,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.52</v>
+          <t>014232</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2226,14 +2269,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>014233</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>4.58</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="4">
@@ -2242,13 +2375,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688186-广大特材.xlsx
+++ b/数据整理/stocks/A股/科创板/688186-广大特材.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,91 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000270</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>建信灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>46.21</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0113</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -548,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -599,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>506000</t>
+          <t>014232</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方科创板 3 年定期开放混合</t>
+          <t>博时专精特新主题混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.78</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>82.52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1477</t>
+          <t>0.0816</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -637,910 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010695</t>
+          <t>014233</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏磐益一年定期开放混合</t>
+          <t>博时专精特新主题混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22.94</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.86</t>
+          <t>82.52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9360</t>
+          <t>0.0731</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010744</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>工银瑞信灵动价值混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>21.79</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>80.10</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6798</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011884</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信景气优选混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.93</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.64</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2971</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001651</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信新蓝筹股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>82.62</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2731</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>481006</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>工银红利混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.56</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2288</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
         <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002006</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>工银瑞信新得益混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>13.84</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>23.67</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1398</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006277</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中金瑞和灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>86.18</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1387</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000763</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>工银新财富灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>87.55</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1346</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>481008</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>工银大盘蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>79.43</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1158</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011703</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中金鑫瑞优选一年持有期灵活配置混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>80.00</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0744</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000195</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>工银瑞信成长收益混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>21.26</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0700</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>000667</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>工银绝对收益策略混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>6.37</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>50.30</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0612</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009031</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>工银瑞信聚和一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>6.50</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>20.60</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0526</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001720</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>工银瑞信新增利混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>7.68</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>20.70</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0522</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>010745</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>工银瑞信灵动价值混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>80.10</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0465</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>011885</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>工银瑞信景气优选混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>90.64</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0391</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>010951</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中金成长精选混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>86.26</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0279</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>000196</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>工银瑞信成长收益混合B</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>21.26</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0252</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>000672</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>工银绝对收益策略混合B</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>50.30</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0086</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>006278</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中金瑞和灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>86.18</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>003582</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中金量化多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>77.93</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>011476</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>工银瑞信新蓝筹股票C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>82.62</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0065</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009032</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>工银瑞信聚和一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>20.60</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>010952</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中金成长精选混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>86.26</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2180,7 +1312,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2201,7 +1333,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2231,36 +1363,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>014232</t>
+          <t>506000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时专精特新主题混合A</t>
+          <t>南方科创板 3 年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>34.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.52</t>
+          <t>93.75</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0816</t>
+          <t>1.1477</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2269,36 +1401,910 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014233</t>
+          <t>010695</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时专精特新主题混合C</t>
+          <t>华夏磐益一年定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>22.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.52</t>
+          <t>99.86</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0731</t>
+          <t>0.9360</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6798</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2971</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2731</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2288</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信新得益混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006277</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011703</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中金鑫瑞优选一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000195</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000667</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>50.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009031</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001720</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信新增利混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010951</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中金成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000196</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信成长收益混合B</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000672</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>50.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006278</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009032</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010952</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中金成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2312,96 +2318,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.58</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.01</v>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>46.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688186-广大特材.xlsx
+++ b/数据整理/stocks/A股/科创板/688186-广大特材.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.15</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2.52</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>4.58</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -549,6 +566,518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014600</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时回报严选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014233</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时汇誉回报混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时汇誉回报混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014601</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时回报严选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012415</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>德邦上证G60综指增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000822</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东海美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012416</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>德邦上证G60综指增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -680,7 +1209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1306,7 +1835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2312,7 +2841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688186-广大特材.xlsx
+++ b/数据整理/stocks/A股/科创板/688186-广大特材.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.46</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>0.15</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2.52</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>4.58</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -566,6 +583,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014600</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时回报严选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014232</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014233</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014601</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时回报严选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1077,7 +1302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1209,7 +1434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1835,7 +2060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2841,7 +3066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
